--- a/database/industries/shishe/kehamda/eps.xlsx
+++ b/database/industries/shishe/kehamda/eps.xlsx
@@ -34,6 +34,9 @@
     <t>capital_now</t>
   </si>
   <si>
+    <t>1401</t>
+  </si>
+  <si>
     <t>1400</t>
   </si>
   <si>
@@ -46,7 +49,7 @@
     <t>1397</t>
   </si>
   <si>
-    <t>1396</t>
+    <t>1401/07/30</t>
   </si>
   <si>
     <t>1400/07/25</t>
@@ -59,9 +62,6 @@
   </si>
   <si>
     <t>1397/07/18</t>
-  </si>
-  <si>
-    <t>1396/07/29</t>
   </si>
 </sst>
 </file>
@@ -453,10 +453,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>922</v>
+        <v>1295</v>
       </c>
       <c r="D2">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E2">
         <v>2880000</v>
@@ -473,13 +473,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>1253</v>
+        <v>922</v>
       </c>
       <c r="D3">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="E3">
-        <v>1152000</v>
+        <v>2880000</v>
       </c>
       <c r="F3">
         <v>2880000</v>
@@ -493,10 +493,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>891</v>
+        <v>1253</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="E4">
         <v>1152000</v>
@@ -513,10 +513,10 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>274</v>
+        <v>891</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E5">
         <v>1152000</v>
@@ -533,13 +533,13 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1365</v>
+        <v>274</v>
       </c>
       <c r="D6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="E6">
-        <v>288000</v>
+        <v>1152000</v>
       </c>
       <c r="F6">
         <v>2880000</v>
